--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -58,25 +58,25 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>1 - 5 - 0</t>
-  </si>
-  <si>
-    <t>2 - 4 - 0</t>
-  </si>
-  <si>
-    <t>4 - 2 - 0</t>
-  </si>
-  <si>
-    <t>3 - 3 - 0</t>
-  </si>
-  <si>
-    <t>5 - 1 - 0</t>
-  </si>
-  <si>
-    <t>6 - 0 - 0</t>
-  </si>
-  <si>
-    <t>0 - 6 - 0</t>
+    <t>1 - 6 - 0</t>
+  </si>
+  <si>
+    <t>2 - 5 - 0</t>
+  </si>
+  <si>
+    <t>5 - 2 - 0</t>
+  </si>
+  <si>
+    <t>3 - 4 - 0</t>
+  </si>
+  <si>
+    <t>4 - 3 - 0</t>
+  </si>
+  <si>
+    <t>6 - 1 - 0</t>
+  </si>
+  <si>
+    <t>0 - 7 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -513,7 +513,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -522,16 +522,16 @@
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -551,19 +551,19 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -572,10 +572,10 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -589,13 +589,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -607,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -671,10 +671,10 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -695,10 +695,10 @@
         <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -718,28 +718,28 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -747,10 +747,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -762,25 +762,25 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -809,16 +809,16 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -832,10 +832,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -850,16 +850,16 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>16</v>
@@ -870,40 +870,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
       <c r="L11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
         <v>13</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,40 +911,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -955,37 +955,37 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1020,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2.25</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1031,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1045,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1059,13 +1059,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1073,10 +1073,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3.083333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -1101,13 +1101,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>3.083333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1115,10 +1115,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>3.083333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1129,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3.25</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1143,13 +1143,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>3.416666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1157,10 +1157,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1171,13 +1171,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>3.666666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>4.833333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D2">
-        <v>-0.166666666666667</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1232,13 +1232,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>4.333333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.666666666666667</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1249,13 +1249,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>4.083333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D4">
-        <v>1.083333333333333</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1263,16 +1263,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1280,16 +1280,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.5833333333333335</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1297,13 +1297,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.25</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D7">
-        <v>-0.75</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>3.166666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D8">
-        <v>0.1666666666666665</v>
+        <v>-0.6666666666666665</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1334,10 +1334,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2.916666666666667</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D9">
-        <v>0.9166666666666665</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -1351,13 +1351,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>2.5</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.5</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1365,16 +1365,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1.666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D11">
-        <v>-0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1382,16 +1382,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>1.416666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D12">
-        <v>0.4166666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1399,16 +1399,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0.9166666666666666</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D13">
-        <v>0.9166666666666666</v>
+        <v>-0.3333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1454,13 +1454,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1468,10 +1468,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1482,13 +1482,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1496,13 +1496,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1510,10 +1510,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
@@ -1538,13 +1538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1552,13 +1552,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>-7</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1566,13 +1566,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>-13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1580,13 +1580,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1597,7 +1597,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_400D65A50520638FC8B1828936F3E1834C5ECBD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE728FAD-F930-4596-899D-263BAC8E86E8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -58,25 +64,28 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>1 - 6 - 0</t>
-  </si>
-  <si>
-    <t>2 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 2 - 0</t>
-  </si>
-  <si>
-    <t>3 - 4 - 0</t>
-  </si>
-  <si>
-    <t>4 - 3 - 0</t>
-  </si>
-  <si>
-    <t>6 - 1 - 0</t>
-  </si>
-  <si>
-    <t>0 - 7 - 0</t>
+    <t>1 - 7 - 0</t>
+  </si>
+  <si>
+    <t>3 - 5 - 0</t>
+  </si>
+  <si>
+    <t>5 - 3 - 0</t>
+  </si>
+  <si>
+    <t>2 - 6 - 0</t>
+  </si>
+  <si>
+    <t>4 - 4 - 0</t>
+  </si>
+  <si>
+    <t>6 - 2 - 0</t>
+  </si>
+  <si>
+    <t>7 - 1 - 0</t>
+  </si>
+  <si>
+    <t>0 - 8 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -92,13 +101,43 @@
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
+  </si>
+  <si>
+    <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +200,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +286,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +338,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,14 +531,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -496,7 +596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>14</v>
@@ -513,31 +613,31 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -545,28 +645,28 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
@@ -575,10 +675,10 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,119 +689,119 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -724,7 +824,7 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -742,48 +842,48 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -791,40 +891,40 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,40 +932,40 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,40 +973,40 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -917,7 +1017,7 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -935,10 +1035,10 @@
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
         <v>17</v>
@@ -947,45 +1047,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -994,81 +1094,87 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>2.333333333333333</v>
+        <v>2.916666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>2.583333333333333</v>
+        <v>3.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3.333333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1076,13 +1182,13 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>3.583333333333333</v>
+        <v>3.75</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1090,83 +1196,83 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3.666666666666667</v>
+        <v>3.916666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.666666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>3.75</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>3.916666666666667</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>3.916666666666667</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1174,10 +1280,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>4.25</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1186,28 +1292,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1215,50 +1329,50 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>5.416666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.583333333333333</v>
+        <v>-0.66666666666666696</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>5.083333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D3">
-        <v>-0.916666666666667</v>
+        <v>-0.83333333333333304</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.916666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D4">
-        <v>0.916666666666667</v>
+        <v>-0.91666666666666696</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1266,16 +1380,16 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1283,16 +1397,16 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>0.08333333333333304</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1300,16 +1414,16 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>3.916666666666667</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D7">
-        <v>-1.083333333333333</v>
+        <v>0.41666666666666702</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1317,16 +1431,16 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>3.333333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D8">
-        <v>-0.6666666666666665</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1334,16 +1448,16 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.083333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D9">
-        <v>1.083333333333333</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1351,50 +1465,50 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>2.833333333333333</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D10">
-        <v>-1.166666666666667</v>
+        <v>0.58333333333333348</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="D11">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.75</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="D12">
-        <v>1.75</v>
+        <v>-1.083333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1402,13 +1516,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>1.666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="D13">
-        <v>-0.3333333333333333</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1417,67 +1531,84 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1485,32 +1616,38 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -1518,8 +1655,11 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1527,55 +1667,67 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-13</v>
+        <v>-10</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1583,13 +1735,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-15</v>
+        <v>-20</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1597,10 +1752,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-27</v>
+        <v>-34</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_400D65A50520638FC8B1828936F3E1834C5ECBD0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE728FAD-F930-4596-899D-263BAC8E86E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,28 +58,31 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>1 - 7 - 0</t>
-  </si>
-  <si>
-    <t>3 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 3 - 0</t>
-  </si>
-  <si>
-    <t>2 - 6 - 0</t>
-  </si>
-  <si>
-    <t>4 - 4 - 0</t>
-  </si>
-  <si>
-    <t>6 - 2 - 0</t>
-  </si>
-  <si>
-    <t>7 - 1 - 0</t>
-  </si>
-  <si>
-    <t>0 - 8 - 0</t>
+    <t>1 - 8 - 0</t>
+  </si>
+  <si>
+    <t>4 - 5 - 0</t>
+  </si>
+  <si>
+    <t>6 - 3 - 0</t>
+  </si>
+  <si>
+    <t>3 - 6 - 0</t>
+  </si>
+  <si>
+    <t>5 - 4 - 0</t>
+  </si>
+  <si>
+    <t>7 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 7 - 0</t>
+  </si>
+  <si>
+    <t>8 - 1 - 0</t>
+  </si>
+  <si>
+    <t>0 - 9 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -106,28 +103,25 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+6</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>+1</t>
+    <t>+10</t>
+  </si>
+  <si>
+    <t>+4</t>
   </si>
   <si>
     <t>+2</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>+8</t>
+  </si>
+  <si>
     <t>-5</t>
   </si>
   <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>-3</t>
+    <t>-2</t>
   </si>
   <si>
     <t>-7</t>
@@ -136,8 +130,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,14 +194,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -254,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,27 +272,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,24 +306,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,31 +481,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -596,7 +529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,40 +537,40 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -648,37 +581,37 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" t="s">
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -689,37 +622,37 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
       <c r="L4" t="s">
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -730,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -739,13 +672,13 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -757,10 +690,10 @@
         <v>16</v>
       </c>
       <c r="M5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,10 +710,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
@@ -792,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>14</v>
@@ -801,7 +734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -842,7 +775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,16 +786,16 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -874,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
         <v>17</v>
@@ -883,7 +816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,119 +827,119 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1023,7 +956,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -1047,7 +980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,37 +988,37 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1094,59 +1027,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>2.916666666666667</v>
+        <v>3.25</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>3.083333333333333</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1154,13 +1081,13 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.416666666666667</v>
+        <v>3.583333333333333</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1168,27 +1095,27 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.583333333333333</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3.75</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1196,27 +1123,27 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3.916666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1224,13 +1151,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.333333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1238,13 +1165,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>4.333333333333333</v>
+        <v>4.75</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1252,13 +1179,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>4.583333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1266,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>4.583333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1280,10 +1207,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1292,36 +1219,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1329,50 +1248,50 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>6.333333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.66666666666666696</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>5.166666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D3">
-        <v>-0.83333333333333304</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>5.083333333333333</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.91666666666666696</v>
+        <v>-0.916666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1380,50 +1299,50 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.416666666666667</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.41666666666666702</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1431,16 +1350,16 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>4.333333333333333</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="D8">
-        <v>0.33333333333333298</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1448,16 +1367,16 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>-1.333333333333333</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1465,16 +1384,16 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>3.583333333333333</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.58333333333333348</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1491,38 +1410,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>1.916666666666667</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D12">
-        <v>-1.083333333333333</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>1.75</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.25</v>
+        <v>-0.9166666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1531,50 +1450,45 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1582,33 +1496,33 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1622,10 +1536,10 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1633,16 +1547,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1650,16 +1564,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1667,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1676,7 +1590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1687,13 +1601,13 @@
         <v>-9</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1701,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1710,7 +1624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1718,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1735,16 +1649,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-20</v>
+        <v>-27</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1752,13 +1666,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-34</v>
+        <v>-39</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="38">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -58,31 +58,34 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>1 - 8 - 0</t>
-  </si>
-  <si>
-    <t>4 - 5 - 0</t>
-  </si>
-  <si>
-    <t>6 - 3 - 0</t>
-  </si>
-  <si>
-    <t>3 - 6 - 0</t>
-  </si>
-  <si>
-    <t>5 - 4 - 0</t>
-  </si>
-  <si>
-    <t>7 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 7 - 0</t>
-  </si>
-  <si>
-    <t>8 - 1 - 0</t>
-  </si>
-  <si>
-    <t>0 - 9 - 0</t>
+    <t>2 - 8 - 0</t>
+  </si>
+  <si>
+    <t>5 - 5 - 0</t>
+  </si>
+  <si>
+    <t>7 - 3 - 0</t>
+  </si>
+  <si>
+    <t>4 - 6 - 0</t>
+  </si>
+  <si>
+    <t>6 - 4 - 0</t>
+  </si>
+  <si>
+    <t>8 - 2 - 0</t>
+  </si>
+  <si>
+    <t>3 - 7 - 0</t>
+  </si>
+  <si>
+    <t>9 - 1 - 0</t>
+  </si>
+  <si>
+    <t>1 - 9 - 0</t>
+  </si>
+  <si>
+    <t>0 - 10 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -103,28 +106,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+10</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>+2</t>
+    <t>+9</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>+8</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-7</t>
+    <t>+7</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-4</t>
   </si>
 </sst>
 </file>
@@ -552,22 +558,22 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -593,13 +599,13 @@
         <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -608,7 +614,7 @@
         <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -619,37 +625,37 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -663,34 +669,34 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -704,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
@@ -716,22 +722,22 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -786,34 +792,34 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -821,40 +827,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -880,13 +886,13 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -895,7 +901,7 @@
         <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -921,22 +927,22 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -947,37 +953,37 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1003,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
         <v>20</v>
@@ -1039,10 +1045,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1050,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1064,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3.416666666666667</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1081,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>3.583333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1092,13 +1098,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>4.333333333333333</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1106,13 +1112,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>4.416666666666667</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1120,13 +1126,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4.666666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1134,13 +1140,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1148,13 +1154,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1162,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.75</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1179,10 +1185,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>4.916666666666667</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1193,10 +1199,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>5.416666666666667</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1207,10 +1213,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1231,13 +1237,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1248,10 +1254,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>7.083333333333333</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>-0.916666666666667</v>
+        <v>-1</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -1265,7 +1271,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>6.083333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D3">
         <v>-0.916666666666667</v>
@@ -1282,13 +1288,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>6.083333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D4">
-        <v>-0.916666666666667</v>
+        <v>-0.75</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1299,13 +1305,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>-0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1316,10 +1322,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D6">
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1330,16 +1336,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1347,16 +1353,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>4.416666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D8">
-        <v>0.416666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1367,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1390,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1401,10 +1407,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.25</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>0.8333333333333335</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1415,16 +1421,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>2.166666666666667</v>
+        <v>2.75</v>
       </c>
       <c r="D12">
-        <v>0.1666666666666665</v>
+        <v>-0.25</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1432,16 +1438,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>2.083333333333333</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.9166666666666665</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1462,13 +1468,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1476,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1493,16 +1499,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1513,13 +1519,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1530,13 +1536,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1547,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1564,13 +1570,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1587,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1595,16 +1601,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1612,16 +1618,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>-12</v>
+        <v>-14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1629,16 +1635,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>-17</v>
+        <v>-15</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1649,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-27</v>
+        <v>-30</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1666,13 +1672,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-39</v>
+        <v>-43</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="40">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -58,34 +58,37 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>2 - 8 - 0</t>
-  </si>
-  <si>
-    <t>5 - 5 - 0</t>
-  </si>
-  <si>
-    <t>7 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 6 - 0</t>
-  </si>
-  <si>
-    <t>6 - 4 - 0</t>
-  </si>
-  <si>
-    <t>8 - 2 - 0</t>
-  </si>
-  <si>
-    <t>3 - 7 - 0</t>
-  </si>
-  <si>
-    <t>9 - 1 - 0</t>
-  </si>
-  <si>
-    <t>1 - 9 - 0</t>
-  </si>
-  <si>
-    <t>0 - 10 - 0</t>
+    <t>2 - 9 - 0</t>
+  </si>
+  <si>
+    <t>5 - 6 - 0</t>
+  </si>
+  <si>
+    <t>8 - 3 - 0</t>
+  </si>
+  <si>
+    <t>4 - 7 - 0</t>
+  </si>
+  <si>
+    <t>6 - 5 - 0</t>
+  </si>
+  <si>
+    <t>7 - 4 - 0</t>
+  </si>
+  <si>
+    <t>3 - 8 - 0</t>
+  </si>
+  <si>
+    <t>9 - 2 - 0</t>
+  </si>
+  <si>
+    <t>1 - 10 - 0</t>
+  </si>
+  <si>
+    <t>0 - 11 - 0</t>
+  </si>
+  <si>
+    <t>10 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -106,31 +109,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+9</t>
-  </si>
-  <si>
-    <t>+5</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>-6</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>+4</t>
   </si>
   <si>
     <t>+3</t>
   </si>
   <si>
+    <t>-8</t>
+  </si>
+  <si>
     <t>-2</t>
   </si>
   <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>+7</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>-4</t>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -590,19 +596,19 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>16</v>
@@ -611,7 +617,7 @@
         <v>16</v>
       </c>
       <c r="L3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -625,37 +631,37 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -678,7 +684,7 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
@@ -693,7 +699,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -707,37 +713,37 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
       <c r="M6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -745,40 +751,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -786,13 +792,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -801,25 +807,25 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -842,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -874,28 +880,28 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -915,22 +921,22 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -939,7 +945,7 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
@@ -956,10 +962,10 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -968,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -977,13 +983,13 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -991,28 +997,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -1021,7 +1027,7 @@
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
@@ -1045,10 +1051,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1059,10 +1065,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1073,7 +1079,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>4.083333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1087,10 +1093,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.166666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>4.916666666666667</v>
+        <v>5.25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1112,13 +1118,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1126,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5.083333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1140,13 +1146,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1154,13 +1160,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>5.25</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1168,13 +1174,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1182,10 +1188,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>5.416666666666667</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1199,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -1213,10 +1219,10 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1237,13 +1243,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1254,10 +1260,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -1271,13 +1277,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>7.083333333333333</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>-0.916666666666667</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1285,16 +1291,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D4">
-        <v>-0.75</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1302,13 +1308,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1322,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.666666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D6">
-        <v>0.666666666666667</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1336,16 +1342,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>5.166666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D7">
-        <v>1.166666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1353,16 +1359,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>5.083333333333333</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D8">
-        <v>0.08333333333333304</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1373,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4.75</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.25</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1390,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -1407,10 +1413,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D11">
-        <v>0.8333333333333335</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1441,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2.416666666666667</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="D13">
-        <v>0.4166666666666665</v>
+        <v>0.5833333333333335</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
@@ -1468,13 +1474,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1491,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1505,7 +1511,7 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -1519,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -1533,13 +1539,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1550,16 +1556,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1570,13 +1576,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1587,13 +1593,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1604,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1618,16 +1624,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>-14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1635,16 +1641,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-15</v>
+        <v>-22</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1655,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-30</v>
+        <v>-32</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1672,13 +1678,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-43</v>
+        <v>-44</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="43">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -58,37 +58,40 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>2 - 9 - 0</t>
-  </si>
-  <si>
-    <t>5 - 6 - 0</t>
-  </si>
-  <si>
-    <t>8 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 7 - 0</t>
-  </si>
-  <si>
-    <t>6 - 5 - 0</t>
-  </si>
-  <si>
-    <t>7 - 4 - 0</t>
-  </si>
-  <si>
-    <t>3 - 8 - 0</t>
-  </si>
-  <si>
-    <t>9 - 2 - 0</t>
-  </si>
-  <si>
-    <t>1 - 10 - 0</t>
-  </si>
-  <si>
-    <t>0 - 11 - 0</t>
-  </si>
-  <si>
-    <t>10 - 1 - 0</t>
+    <t>3 - 9 - 0</t>
+  </si>
+  <si>
+    <t>6 - 6 - 0</t>
+  </si>
+  <si>
+    <t>9 - 3 - 0</t>
+  </si>
+  <si>
+    <t>4 - 8 - 0</t>
+  </si>
+  <si>
+    <t>7 - 5 - 0</t>
+  </si>
+  <si>
+    <t>8 - 4 - 0</t>
+  </si>
+  <si>
+    <t>5 - 7 - 0</t>
+  </si>
+  <si>
+    <t>10 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 10 - 0</t>
+  </si>
+  <si>
+    <t>1 - 11 - 0</t>
+  </si>
+  <si>
+    <t>0 - 12 - 0</t>
+  </si>
+  <si>
+    <t>11 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -109,34 +112,40 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>+6</t>
-  </si>
-  <si>
-    <t>+4</t>
-  </si>
-  <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-1</t>
+    <t>-69</t>
+  </si>
+  <si>
+    <t>-90</t>
+  </si>
+  <si>
+    <t>-88</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>-66</t>
+  </si>
+  <si>
+    <t>-64</t>
+  </si>
+  <si>
+    <t>-59</t>
+  </si>
+  <si>
+    <t>-73</t>
+  </si>
+  <si>
+    <t>-43</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>-30</t>
   </si>
 </sst>
 </file>
@@ -549,25 +558,25 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -576,10 +585,10 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -590,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -611,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
@@ -640,10 +649,10 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -652,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L4" t="s">
         <v>18</v>
@@ -672,31 +681,31 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>13</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -716,31 +725,31 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -757,25 +766,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
         <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -792,40 +801,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -833,40 +842,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -877,37 +886,37 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
       <c r="M10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -915,28 +924,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
@@ -945,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
         <v>13</v>
@@ -956,40 +965,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1018,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -1027,7 +1036,7 @@
         <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
         <v>20</v>
@@ -1051,10 +1060,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1065,10 +1074,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.25</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1079,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1090,13 +1099,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5.083333333333333</v>
+        <v>5.916666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1104,10 +1113,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1121,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.416666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -1132,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1146,13 +1155,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5.666666666666667</v>
+        <v>6.25</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1160,13 +1169,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5.833333333333333</v>
+        <v>6.25</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1177,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>5.916666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1188,10 +1197,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>5.916666666666667</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1202,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>6.25</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1216,13 +1225,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>6.416666666666667</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1243,13 +1252,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1260,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>8.333333333333334</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D2">
         <v>-0.6666666666666661</v>
@@ -1277,10 +1286,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1291,16 +1300,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6.833333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D4">
         <v>-0.166666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1308,13 +1317,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>6.583333333333333</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.416666666666667</v>
+        <v>-0.25</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1325,16 +1334,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>6.416666666666667</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D6">
-        <v>0.416666666666667</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1342,16 +1351,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6.083333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D7">
-        <v>0.08333333333333304</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1359,16 +1368,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1.833333333333333</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1376,16 +1385,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>5.166666666666667</v>
-      </c>
       <c r="D9">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1396,13 +1405,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.083333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D10">
-        <v>1.083333333333333</v>
+        <v>-0.416666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1410,13 +1419,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>3.333333333333333</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D11">
-        <v>1.333333333333333</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1427,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>2.75</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D12">
-        <v>-0.25</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1447,13 +1456,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2.583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
-        <v>0.5833333333333335</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1474,13 +1483,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1488,16 +1497,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>37</v>
+        <v>-38</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1505,16 +1514,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>-53</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1522,16 +1531,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>-53</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1539,16 +1548,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>-54</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1556,16 +1565,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>-57</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1576,13 +1585,13 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>-62</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1593,13 +1602,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-63</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1607,16 +1616,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-64</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1624,16 +1633,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>-14</v>
+        <v>-65</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1641,16 +1650,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>-22</v>
+        <v>-66</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1658,16 +1667,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>-32</v>
+        <v>-67</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1678,13 +1687,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-44</v>
+        <v>-74</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -112,40 +112,40 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>-69</t>
-  </si>
-  <si>
-    <t>-90</t>
-  </si>
-  <si>
-    <t>-88</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>-66</t>
-  </si>
-  <si>
-    <t>-64</t>
-  </si>
-  <si>
-    <t>-59</t>
-  </si>
-  <si>
-    <t>-73</t>
-  </si>
-  <si>
-    <t>-43</t>
-  </si>
-  <si>
-    <t>-34</t>
-  </si>
-  <si>
-    <t>-60</t>
-  </si>
-  <si>
-    <t>-30</t>
+    <t>+92</t>
+  </si>
+  <si>
+    <t>+69</t>
+  </si>
+  <si>
+    <t>+83</t>
+  </si>
+  <si>
+    <t>+67</t>
+  </si>
+  <si>
+    <t>+68</t>
+  </si>
+  <si>
+    <t>+66</t>
+  </si>
+  <si>
+    <t>+61</t>
+  </si>
+  <si>
+    <t>+60</t>
+  </si>
+  <si>
+    <t>+43</t>
+  </si>
+  <si>
+    <t>+45</t>
+  </si>
+  <si>
+    <t>+34</t>
+  </si>
+  <si>
+    <t>+28</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1269,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>1.666666666666667</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D2">
         <v>-0.6666666666666661</v>
@@ -1286,7 +1286,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.583333333333333</v>
+        <v>8.5</v>
       </c>
       <c r="D3">
         <v>-1.5</v>
@@ -1300,13 +1300,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.166666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.166666666666667</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1317,13 +1317,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1.166666666666667</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.25</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1334,13 +1334,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1.166666666666667</v>
+        <v>6.75</v>
       </c>
       <c r="D6">
-        <v>-0.08333333333333304</v>
+        <v>-0.25</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1354,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1.083333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D7">
         <v>0.583333333333333</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D8">
         <v>1.083333333333333</v>
@@ -1388,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>0.8333333333333334</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="D10">
         <v>-0.416666666666667</v>
@@ -1419,13 +1419,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5833333333333334</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D11">
-        <v>0.4166666666666665</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1436,13 +1436,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.5833333333333334</v>
+        <v>3.416666666666667</v>
       </c>
       <c r="D12">
-        <v>1.166666666666667</v>
+        <v>0.4166666666666665</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D13">
         <v>-0.1666666666666665</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>-38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>31</v>
@@ -1514,13 +1514,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>-53</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>32</v>
@@ -1534,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>-53</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -1548,13 +1548,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>-54</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -1565,10 +1565,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>-57</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -1582,13 +1582,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>-62</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>-63</v>
+        <v>-2</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1616,10 +1616,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>-64</v>
+        <v>-7</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1633,13 +1633,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-65</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>39</v>
@@ -1650,13 +1650,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-66</v>
+        <v>-20</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>40</v>
@@ -1667,13 +1667,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-67</v>
+        <v>-32</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
         <v>41</v>
@@ -1687,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-74</v>
+        <v>-46</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_51A107ADE140A5A7B94D964C0BB3F10D24D9F712" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB61604-EDA9-4DE7-9C32-BCA6CFABDBD7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,25 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="38">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -112,47 +131,32 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>+92</t>
-  </si>
-  <si>
-    <t>+69</t>
-  </si>
-  <si>
-    <t>+83</t>
-  </si>
-  <si>
-    <t>+67</t>
-  </si>
-  <si>
-    <t>+68</t>
-  </si>
-  <si>
-    <t>+66</t>
-  </si>
-  <si>
-    <t>+61</t>
-  </si>
-  <si>
-    <t>+60</t>
-  </si>
-  <si>
-    <t>+43</t>
-  </si>
-  <si>
-    <t>+45</t>
-  </si>
-  <si>
-    <t>+34</t>
-  </si>
-  <si>
-    <t>+28</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +219,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -261,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,9 +305,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +357,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,14 +550,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -550,7 +598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -632,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,7 +721,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -714,7 +762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,7 +803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -837,7 +885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,7 +926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -919,7 +967,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,7 +1008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,14 +1096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1066,7 +1114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1080,7 +1128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1094,7 +1142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1108,7 +1156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1122,7 +1170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1136,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1150,7 +1198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1164,7 +1212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1178,7 +1226,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1192,7 +1240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1206,7 +1254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1220,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1240,14 +1288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1261,7 +1309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1269,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9.333333333333334</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="D2">
-        <v>-0.6666666666666661</v>
+        <v>-0.66666666666666607</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1295,7 +1343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1306,13 +1354,13 @@
         <v>6.916666666666667</v>
       </c>
       <c r="D4">
-        <v>-0.08333333333333304</v>
+        <v>-8.3333333333333037E-2</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1323,13 +1371,13 @@
         <v>6.833333333333333</v>
       </c>
       <c r="D5">
-        <v>-0.166666666666667</v>
+        <v>-0.16666666666666699</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1346,7 +1394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1357,13 +1405,13 @@
         <v>6.583333333333333</v>
       </c>
       <c r="D7">
-        <v>0.583333333333333</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1380,7 +1428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1397,7 +1445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1408,13 +1456,13 @@
         <v>4.583333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.416666666666667</v>
+        <v>-0.41666666666666702</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1431,7 +1479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1442,13 +1490,13 @@
         <v>3.416666666666667</v>
       </c>
       <c r="D12">
-        <v>0.4166666666666665</v>
+        <v>0.41666666666666652</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1459,7 +1507,7 @@
         <v>2.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.1666666666666665</v>
+        <v>-0.16666666666666649</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1471,14 +1519,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +1542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1506,10 +1556,10 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1522,11 +1572,11 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1540,10 +1590,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1560,7 +1610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1577,7 +1627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1591,10 +1641,10 @@
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1608,10 +1658,10 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1624,11 +1674,11 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1642,10 +1692,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1659,10 +1709,10 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1675,11 +1725,11 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1693,7 +1743,7 @@
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennoni1-my.sharepoint.com/personal/louie_rodriguez_pennoni_com/Documents/Desktop/repo/FantasyFootballApp/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_51A107ADE140A5A7B94D964C0BB3F10D24D9F712" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB61604-EDA9-4DE7-9C32-BCA6CFABDBD7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
@@ -18,25 +12,12 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="41">
   <si>
     <t>PAI Athletic Director</t>
   </si>
@@ -77,40 +58,43 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>3 - 9 - 0</t>
-  </si>
-  <si>
-    <t>6 - 6 - 0</t>
-  </si>
-  <si>
-    <t>9 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 8 - 0</t>
-  </si>
-  <si>
-    <t>7 - 5 - 0</t>
-  </si>
-  <si>
-    <t>8 - 4 - 0</t>
-  </si>
-  <si>
-    <t>5 - 7 - 0</t>
-  </si>
-  <si>
-    <t>10 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 10 - 0</t>
-  </si>
-  <si>
-    <t>1 - 11 - 0</t>
-  </si>
-  <si>
-    <t>0 - 12 - 0</t>
-  </si>
-  <si>
-    <t>11 - 1 - 0</t>
+    <t>3 - 10 - 0</t>
+  </si>
+  <si>
+    <t>6 - 7 - 0</t>
+  </si>
+  <si>
+    <t>10 - 3 - 0</t>
+  </si>
+  <si>
+    <t>4 - 9 - 0</t>
+  </si>
+  <si>
+    <t>7 - 6 - 0</t>
+  </si>
+  <si>
+    <t>8 - 5 - 0</t>
+  </si>
+  <si>
+    <t>5 - 8 - 0</t>
+  </si>
+  <si>
+    <t>9 - 4 - 0</t>
+  </si>
+  <si>
+    <t>11 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 11 - 0</t>
+  </si>
+  <si>
+    <t>1 - 12 - 0</t>
+  </si>
+  <si>
+    <t>0 - 13 - 0</t>
+  </si>
+  <si>
+    <t>12 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -131,32 +115,38 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓5</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↑7</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓2</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,14 +209,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -273,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,27 +287,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,24 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -550,14 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -598,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,22 +552,22 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -630,16 +576,16 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,16 +593,16 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -680,7 +626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,40 +634,40 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,13 +675,13 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -744,25 +690,25 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
       <c r="L5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -803,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,7 +757,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -823,28 +769,28 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,16 +798,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -873,19 +819,19 @@
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,16 +839,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -920,30 +866,30 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -952,39 +898,39 @@
         <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>19</v>
@@ -993,22 +939,22 @@
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -1072,22 +1018,22 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1096,25 +1042,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1122,13 +1068,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.333333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1136,55 +1082,55 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.083333333333333</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>5.916666666666667</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6.083333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1192,83 +1138,83 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>6.083333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>6.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>6.333333333333333</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>6.416666666666667</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>6.583333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1276,10 +1222,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>6.666666666666667</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1288,28 +1234,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1317,16 +1263,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9.3333333333333339</v>
+        <v>10.08333333333333</v>
       </c>
       <c r="D2">
-        <v>-0.66666666666666607</v>
+        <v>-0.9166666666666661</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1334,50 +1280,50 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8.5</v>
+        <v>8.916666666666666</v>
       </c>
       <c r="D3">
-        <v>-1.5</v>
+        <v>-1.083333333333334</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>6.916666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D4">
-        <v>-8.3333333333333037E-2</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>6.833333333333333</v>
+        <v>7.5</v>
       </c>
       <c r="D5">
-        <v>-0.16666666666666699</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1385,67 +1331,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>6.75</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D6">
-        <v>-0.25</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>6.583333333333333</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="D7">
-        <v>0.58333333333333304</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>6.083333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D8">
-        <v>1.083333333333333</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1453,16 +1399,16 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.583333333333333</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D10">
-        <v>-0.41666666666666702</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1470,16 +1416,16 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.166666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D11">
-        <v>1.166666666666667</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1487,16 +1433,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.416666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D12">
-        <v>0.41666666666666652</v>
+        <v>0.75</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1504,13 +1450,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>2.833333333333333</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.16666666666666649</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1519,30 +1465,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1550,16 +1494,16 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1567,16 +1511,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1584,89 +1528,89 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>-7</v>
@@ -1674,28 +1618,28 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1703,16 +1647,16 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1725,11 +1669,11 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1737,13 +1681,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-46</v>
+        <v>-53</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Pennoni Younglings.xlsx
+++ b/Pennoni Younglings.xlsx
@@ -58,43 +58,43 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>3 - 10 - 0</t>
-  </si>
-  <si>
-    <t>6 - 7 - 0</t>
-  </si>
-  <si>
-    <t>10 - 3 - 0</t>
-  </si>
-  <si>
-    <t>4 - 9 - 0</t>
-  </si>
-  <si>
-    <t>7 - 6 - 0</t>
-  </si>
-  <si>
-    <t>8 - 5 - 0</t>
-  </si>
-  <si>
-    <t>5 - 8 - 0</t>
-  </si>
-  <si>
-    <t>9 - 4 - 0</t>
-  </si>
-  <si>
-    <t>11 - 2 - 0</t>
-  </si>
-  <si>
-    <t>2 - 11 - 0</t>
-  </si>
-  <si>
-    <t>1 - 12 - 0</t>
-  </si>
-  <si>
-    <t>0 - 13 - 0</t>
-  </si>
-  <si>
-    <t>12 - 1 - 0</t>
+    <t>4 - 10 - 0</t>
+  </si>
+  <si>
+    <t>7 - 7 - 0</t>
+  </si>
+  <si>
+    <t>11 - 3 - 0</t>
+  </si>
+  <si>
+    <t>5 - 9 - 0</t>
+  </si>
+  <si>
+    <t>8 - 6 - 0</t>
+  </si>
+  <si>
+    <t>9 - 5 - 0</t>
+  </si>
+  <si>
+    <t>6 - 8 - 0</t>
+  </si>
+  <si>
+    <t>10 - 4 - 0</t>
+  </si>
+  <si>
+    <t>12 - 2 - 0</t>
+  </si>
+  <si>
+    <t>2 - 12 - 0</t>
+  </si>
+  <si>
+    <t>1 - 13 - 0</t>
+  </si>
+  <si>
+    <t>3 - 11 - 0</t>
+  </si>
+  <si>
+    <t>13 - 1 - 0</t>
   </si>
   <si>
     <t>Avg Wins Against Schedule</t>
@@ -115,31 +115,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↓5</t>
   </si>
   <si>
     <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -555,16 +555,16 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -576,10 +576,10 @@
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -599,10 +599,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -620,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -643,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -661,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
@@ -681,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -693,16 +693,16 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s">
         <v>13</v>
@@ -716,37 +716,37 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -760,31 +760,31 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
@@ -798,34 +798,34 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
@@ -866,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="L9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
@@ -883,19 +883,19 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -907,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -918,40 +918,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -962,37 +962,37 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1068,10 +1068,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1082,10 +1082,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.416666666666667</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1096,10 +1096,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>6.083333333333333</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1107,13 +1107,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>6.416666666666667</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1121,13 +1121,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1135,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>6.666666666666667</v>
+        <v>7.25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1149,13 +1149,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>6.75</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1163,13 +1163,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>6.833333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1177,13 +1177,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1191,13 +1191,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>7.083333333333333</v>
+        <v>7.583333333333333</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1205,10 +1205,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>7.166666666666667</v>
+        <v>7.75</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1222,10 +1222,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>7.583333333333333</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>10.08333333333333</v>
+        <v>11.08333333333333</v>
       </c>
       <c r="D2">
         <v>-0.9166666666666661</v>
@@ -1280,13 +1280,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>8.916666666666666</v>
+        <v>9.25</v>
       </c>
       <c r="D3">
-        <v>-1.083333333333334</v>
+        <v>-0.75</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1297,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>7.833333333333333</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D4">
-        <v>-0.166666666666667</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -1314,13 +1314,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>7.5</v>
+        <v>7.75</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1328,13 +1328,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>6.833333333333333</v>
+        <v>7.416666666666667</v>
       </c>
       <c r="D6">
-        <v>-0.166666666666667</v>
+        <v>-0.583333333333333</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1345,16 +1345,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6.833333333333333</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.166666666666667</v>
+        <v>0.08333333333333304</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1362,13 +1362,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>6.583333333333333</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="D8">
-        <v>0.583333333333333</v>
+        <v>-0.08333333333333304</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1379,16 +1379,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>6.333333333333333</v>
+        <v>6.75</v>
       </c>
       <c r="D9">
-        <v>0.333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1399,10 +1399,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>5.083333333333333</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.08333333333333304</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -1422,7 +1422,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="D12">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1450,13 +1450,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>3.166666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="D13">
-        <v>-0.8333333333333335</v>
+        <v>-0.25</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1494,7 +1494,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -1511,10 +1511,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
@@ -1528,10 +1528,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -1545,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1562,13 +1562,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1593,13 +1593,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -1610,16 +1610,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1627,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -1647,13 +1647,13 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>-17</v>
+        <v>-16</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-32</v>
+        <v>-37</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1681,13 +1681,13 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>-53</v>
+        <v>-49</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
